--- a/Elecciones/data/DATA MODELO FINAL.xlsx
+++ b/Elecciones/data/DATA MODELO FINAL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meagan\Desktop\TURNOUT ANALYSIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Titi\Documents\Github\Entendiendo-Honduras\Elecciones\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" xr2:uid="{C83E8BCA-043D-43ED-9697-F3B01E6ABE4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{C83E8BCA-043D-43ED-9697-F3B01E6ABE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="TURNOUT VS IDH" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>Departament</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>DEP</t>
+  </si>
+  <si>
+    <t>Poblacion Rural</t>
+  </si>
+  <si>
+    <t>Literacy</t>
   </si>
 </sst>
 </file>
@@ -586,17 +592,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82014102-19F6-462F-AD07-F70AE00D09B6}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.109375" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -622,7 +628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -648,7 +654,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -674,7 +680,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -700,7 +706,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -726,7 +732,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -752,7 +758,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -778,7 +784,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -804,7 +810,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -830,7 +836,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -856,7 +862,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -882,7 +888,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -908,7 +914,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -934,7 +940,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -960,7 +966,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -986,7 +992,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1098,31 +1104,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED54DA4B-0349-44AC-B5CD-34D294075DC4}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1174,8 +1181,14 @@
       <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1211,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1234,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1326,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1349,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1372,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1395,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1405,7 +1418,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1428,7 +1441,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1464,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1510,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1520,7 +1533,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1568,7 +1581,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1592,7 +1605,7 @@
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1637,8 +1650,14 @@
       <c r="Q20" s="1">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <v>0.34575049699999999</v>
+      </c>
+      <c r="S20">
+        <v>0.89480000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1682,8 +1701,14 @@
       <c r="Q21" s="1">
         <v>0.68500000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <v>0.53605376800000004</v>
+      </c>
+      <c r="S21">
+        <v>0.84609999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1727,8 +1752,14 @@
       <c r="Q22" s="1">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <v>0.51877430499999999</v>
+      </c>
+      <c r="S22">
+        <v>0.85229999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1772,8 +1803,14 @@
       <c r="Q23" s="1">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <v>0.62775530400000001</v>
+      </c>
+      <c r="S23">
+        <v>0.76259999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1817,8 +1854,14 @@
       <c r="Q24" s="1">
         <v>0.746</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <v>0.19244889600000001</v>
+      </c>
+      <c r="S24">
+        <v>0.91449999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1862,8 +1905,14 @@
       <c r="Q25" s="1">
         <v>0.67100000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <v>0.63847776300000003</v>
+      </c>
+      <c r="S25">
+        <v>0.82269999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1907,8 +1956,14 @@
       <c r="Q26" s="1">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <v>0.691224905</v>
+      </c>
+      <c r="S26">
+        <v>0.81489999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1955,8 +2010,14 @@
       <c r="Q27" s="1">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <v>0.224812546</v>
+      </c>
+      <c r="S27">
+        <v>0.91259999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2003,8 +2064,14 @@
       <c r="Q28" s="1">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <v>0.67075279499999996</v>
+      </c>
+      <c r="S28">
+        <v>0.83989999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -2051,8 +2118,14 @@
       <c r="Q29" s="1">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <v>0.81387118700000005</v>
+      </c>
+      <c r="S29">
+        <v>0.81369999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -2099,8 +2172,14 @@
       <c r="Q30" s="1">
         <v>0.76100000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <v>0.45267516000000002</v>
+      </c>
+      <c r="S30">
+        <v>0.95809999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -2147,8 +2226,14 @@
       <c r="Q31" s="1">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <v>0.73591687400000005</v>
+      </c>
+      <c r="S31">
+        <v>0.83279999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -2195,8 +2280,14 @@
       <c r="Q32" s="1">
         <v>0.59199999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <v>0.91268420400000005</v>
+      </c>
+      <c r="S32">
+        <v>0.74639999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -2243,8 +2334,14 @@
       <c r="Q33" s="1">
         <v>0.63700000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <v>0.72001638999999995</v>
+      </c>
+      <c r="S33">
+        <v>0.78710000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
@@ -2291,8 +2388,14 @@
       <c r="Q34" s="1">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <v>0.65996493599999995</v>
+      </c>
+      <c r="S34">
+        <v>0.80049999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -2339,8 +2442,14 @@
       <c r="Q35" s="1">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <v>0.67229557299999998</v>
+      </c>
+      <c r="S35">
+        <v>0.77659999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -2387,8 +2496,14 @@
       <c r="Q36" s="1">
         <v>0.67800000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <v>0.63271866700000001</v>
+      </c>
+      <c r="S36">
+        <v>0.82310000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -2435,8 +2550,14 @@
       <c r="Q37" s="1">
         <v>0.68899999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <v>0.48067193000000003</v>
+      </c>
+      <c r="S37">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,8 +2612,14 @@
       <c r="Q38" s="1">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>0.34575049699999999</v>
+      </c>
+      <c r="S38">
+        <v>0.89480000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
@@ -2547,8 +2674,14 @@
       <c r="Q39" s="1">
         <v>0.68500000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0.53605376800000004</v>
+      </c>
+      <c r="S39">
+        <v>0.84609999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2603,8 +2736,14 @@
       <c r="Q40" s="1">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0.51877430499999999</v>
+      </c>
+      <c r="S40">
+        <v>0.85229999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2659,8 +2798,14 @@
       <c r="Q41" s="1">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0.62775530400000001</v>
+      </c>
+      <c r="S41">
+        <v>0.76259999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -2715,8 +2860,14 @@
       <c r="Q42" s="1">
         <v>0.746</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0.19244889600000001</v>
+      </c>
+      <c r="S42">
+        <v>0.91449999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2771,8 +2922,14 @@
       <c r="Q43" s="1">
         <v>0.67100000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0.63847776300000003</v>
+      </c>
+      <c r="S43">
+        <v>0.82269999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
@@ -2827,8 +2984,14 @@
       <c r="Q44" s="1">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0.691224905</v>
+      </c>
+      <c r="S44">
+        <v>0.81489999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2883,8 +3046,14 @@
       <c r="Q45" s="1">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0.224812546</v>
+      </c>
+      <c r="S45">
+        <v>0.91259999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -2939,8 +3108,14 @@
       <c r="Q46" s="1">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0.67075279499999996</v>
+      </c>
+      <c r="S46">
+        <v>0.83989999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -2995,8 +3170,14 @@
       <c r="Q47" s="1">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>0.81387118700000005</v>
+      </c>
+      <c r="S47">
+        <v>0.81369999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -3051,8 +3232,14 @@
       <c r="Q48" s="1">
         <v>0.76100000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>0.45267516000000002</v>
+      </c>
+      <c r="S48">
+        <v>0.95809999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3107,8 +3294,14 @@
       <c r="Q49" s="1">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>0.73591687400000005</v>
+      </c>
+      <c r="S49">
+        <v>0.83279999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -3163,8 +3356,14 @@
       <c r="Q50" s="1">
         <v>0.59199999999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>0.91268420400000005</v>
+      </c>
+      <c r="S50">
+        <v>0.74639999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3219,8 +3418,14 @@
       <c r="Q51" s="1">
         <v>0.63700000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>0.72001638999999995</v>
+      </c>
+      <c r="S51">
+        <v>0.78710000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3275,8 +3480,14 @@
       <c r="Q52" s="1">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>0.65996493599999995</v>
+      </c>
+      <c r="S52">
+        <v>0.80049999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>20</v>
       </c>
@@ -3331,8 +3542,14 @@
       <c r="Q53" s="1">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>0.67229557299999998</v>
+      </c>
+      <c r="S53">
+        <v>0.77659999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
@@ -3387,8 +3604,14 @@
       <c r="Q54" s="1">
         <v>0.67800000000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>0.63271866700000001</v>
+      </c>
+      <c r="S54">
+        <v>0.82310000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>22</v>
       </c>
@@ -3442,6 +3665,12 @@
       </c>
       <c r="Q55" s="1">
         <v>0.68899999999999995</v>
+      </c>
+      <c r="R55">
+        <v>0.48067193000000003</v>
+      </c>
+      <c r="S55">
+        <v>0.84899999999999998</v>
       </c>
     </row>
   </sheetData>
